--- a/Output/2. Geography Master/1. Zone Master Report File.xlsx
+++ b/Output/2. Geography Master/1. Zone Master Report File.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apaar\GMS Process\GMS Process_Udaan\Output\1. Geography Master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GMS Process_GIT\GMS-Process_v1\Output\2. Geography Master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818D13EB-A9D0-4114-AF7E-16C888C48D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEAAC5B-786C-4B5F-A09D-8FB7122CD0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="3975" yWindow="3045" windowWidth="15300" windowHeight="7875" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="A2_1_Zone_Master" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <x:si>
     <x:t>Zone</x:t>
   </x:si>
@@ -43,31 +43,22 @@
     <x:t>Result</x:t>
   </x:si>
   <x:si>
-    <x:t>MZZone</x:t>
+    <x:t>Zonepqrs</x:t>
   </x:si>
   <x:si>
     <x:t>Enter Valid Zone More Than 3 Letters</x:t>
   </x:si>
   <x:si>
+    <x:t>Zone Already Exists</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zonepqrt</x:t>
+  </x:si>
+  <x:si>
     <x:t>Pass</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NZZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zone Already Exists</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Fail</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User Entered Less Than 3 Letters In Zone Tab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>North Z</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -147,7 +138,7 @@
   </x:cellStyleXfs>
   <x:cellXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -437,19 +428,19 @@
   <x:dimension ref="A1:E1"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="D7" sqref="D7"/>
+      <x:selection activeCell="B8" sqref="B8"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:cols>
-    <x:col min="1" max="1" width="9.21875" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="2" max="2" width="31.664062" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="3" max="3" width="11.886719" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="4" max="4" width="38.109375" style="0" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="6.109375" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="1" max="1" width="9.285156" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="2" max="2" width="31.710938" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="3" max="3" width="11.855469" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="4" width="38.140625" style="0" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="6.140625" style="0" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <x:c r="A1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -476,50 +467,25 @@
       <x:c r="C2" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:5">
       <x:c r="A3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="E3" s="0" t="s">
         <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5">
-      <x:c r="A4" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:5">
-      <x:c r="A5" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>6</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
